--- a/static/assets/sample_grade_upload.xlsx
+++ b/static/assets/sample_grade_upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djeid\OneDrive\cs projects\se302_resit_backend\static\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826A2670-171A-4779-86D2-09FB16CEEF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A6FBE1-2B13-4C2B-A11B-0A87FDF70448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Email</t>
   </si>
@@ -32,15 +32,6 @@
   </si>
   <si>
     <t>Absences</t>
-  </si>
-  <si>
-    <t>mujahed@edu.tr</t>
-  </si>
-  <si>
-    <t>djeid@edu.tr</t>
-  </si>
-  <si>
-    <t>malak@edu.tr</t>
   </si>
 </sst>
 </file>
@@ -398,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,51 +418,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>90</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="C3">
-        <v>80</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{9845D9A2-05DC-4376-A690-CAF30C0BB1EE}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>